--- a/sc_karltron/sc_karltron_bomguide.xlsx
+++ b/sc_karltron/sc_karltron_bomguide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sc_karltron" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="158">
   <si>
     <t>Source:</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>resistors are cheap, get some bulk of these common values</t>
+  </si>
+  <si>
+    <t>Karltron SynthCard   v1 20230215</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -591,6 +594,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2475,10 +2497,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,77 +2512,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>146</v>
@@ -2570,16 +2578,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>146</v>
@@ -2589,40 +2597,38 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>138</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>138</v>
@@ -2631,475 +2637,397 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="6" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>10</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>13</v>
-      </c>
-      <c r="B35" s="4">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>14</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sc_karltron/sc_karltron_bomguide.xlsx
+++ b/sc_karltron/sc_karltron_bomguide.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/Workspace/KiCad/Shady/sc_Examples/sc_karltron/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/Workspace/KiCad/Synthcard/sc_karltron/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB05A6-FD74-D049-AF41-B29B11F48E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="18620" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sc_karltron" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="160">
   <si>
     <t>Source:</t>
   </si>
@@ -502,12 +514,18 @@
   </si>
   <si>
     <t>Karltron SynthCard   v1 20230215</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Expo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -569,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -586,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -595,24 +613,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,6 +631,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -890,14 +901,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:I90"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1936,7 +1950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>118</v>
       </c>
@@ -1953,12 +1967,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1980,8 +1994,14 @@
       <c r="G68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2003,8 +2023,15 @@
       <c r="G69" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <f>H69*B69</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2026,8 +2053,15 @@
       <c r="G70" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:I90" si="0">H70*B70</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2049,8 +2083,15 @@
       <c r="G71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -2072,8 +2113,15 @@
       <c r="G72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2095,8 +2143,15 @@
       <c r="G73" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>15</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6</v>
       </c>
@@ -2118,8 +2173,15 @@
       <c r="G74" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>15</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2141,8 +2203,15 @@
       <c r="G75" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2164,8 +2233,15 @@
       <c r="G76" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>9</v>
       </c>
@@ -2187,8 +2263,15 @@
       <c r="G77" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10</v>
       </c>
@@ -2210,8 +2293,15 @@
       <c r="G78" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>11</v>
       </c>
@@ -2233,8 +2323,15 @@
       <c r="G79" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>12</v>
       </c>
@@ -2256,8 +2353,15 @@
       <c r="G80" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13</v>
       </c>
@@ -2279,8 +2383,15 @@
       <c r="G81" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>14</v>
       </c>
@@ -2302,8 +2413,15 @@
       <c r="G82" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>15</v>
       </c>
@@ -2325,8 +2443,15 @@
       <c r="G83" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>16</v>
       </c>
@@ -2348,8 +2473,15 @@
       <c r="G84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>17</v>
       </c>
@@ -2371,8 +2503,15 @@
       <c r="G85" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>15</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>18</v>
       </c>
@@ -2394,8 +2533,15 @@
       <c r="G86" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>19</v>
       </c>
@@ -2417,8 +2563,15 @@
       <c r="G87" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20</v>
       </c>
@@ -2440,8 +2593,15 @@
       <c r="G88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>21</v>
       </c>
@@ -2463,8 +2623,15 @@
       <c r="G89" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>15</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>22</v>
       </c>
@@ -2485,6 +2652,13 @@
       </c>
       <c r="G90" t="s">
         <v>117</v>
+      </c>
+      <c r="H90">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2493,14 +2667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,205 +3003,111 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
